--- a/Lab_4/Чек-лист.xlsx
+++ b/Lab_4/Чек-лист.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\bsu_testing\Lab_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6CDA1D-450F-4319-AE27-9FA67FD6D7CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C215DBCB-BCCE-45A8-9967-B9B526EA3689}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="99">
   <si>
     <t>N/A</t>
   </si>
@@ -282,13 +282,77 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>1.1.4</t>
+  </si>
+  <si>
+    <t>Просмотр списка сотрудников</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Ширина таблицы подстраивается под ширину экрана</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">   Добавление в конец списка сотрудника при его добавлении</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.1.4.1</t>
+  </si>
+  <si>
+    <t>1.1.2.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Создание новой записи с спец символами</t>
+  </si>
+  <si>
+    <t>1.1.3.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Редактирование элементов спецсимволами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.1.4.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.1.4.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.1.4.3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Переход на предидущую форму при отмене добавления</t>
+    </r>
+  </si>
+  <si>
+    <t>Переход на предидущую форму при отмене редактирования</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,6 +487,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -700,7 +773,7 @@
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -835,6 +908,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -886,12 +974,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1287,20 +1369,20 @@
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
     </row>
     <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1309,107 +1391,107 @@
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="68"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="63"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="59"/>
     </row>
     <row r="8" spans="1:7" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="65"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="65"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="65"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="65"/>
     </row>
     <row r="14" spans="1:7" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="71"/>
     </row>
     <row r="15" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -1464,13 +1546,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -1486,18 +1568,18 @@
         <v>67</v>
       </c>
       <c r="B1" s="22"/>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="68"/>
+      <c r="D1" s="73"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="23"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="70"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="75"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
@@ -1576,7 +1658,7 @@
       <c r="B9" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="49" t="s">
         <v>68</v>
       </c>
       <c r="D9" s="43"/>
@@ -1688,45 +1770,44 @@
       <c r="D18" s="43"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B20" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="36" t="s">
+      <c r="C20" s="42"/>
+      <c r="D20" s="43"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B21" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="43"/>
-    </row>
-    <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="36" t="s">
+      <c r="C21" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="43"/>
+    </row>
+    <row r="22" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B22" s="33" t="s">
         <v>79</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="43"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>56</v>
       </c>
       <c r="C22" s="40" t="s">
         <v>64</v>
@@ -1735,10 +1816,10 @@
     </row>
     <row r="23" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A23" s="36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C23" s="40" t="s">
         <v>64</v>
@@ -1747,10 +1828,10 @@
     </row>
     <row r="24" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>58</v>
       </c>
       <c r="C24" s="40" t="s">
         <v>64</v>
@@ -1759,10 +1840,10 @@
     </row>
     <row r="25" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A25" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="40" t="s">
         <v>64</v>
@@ -1771,10 +1852,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" s="40" t="s">
         <v>64</v>
@@ -1783,34 +1864,102 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="43"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B28" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="43"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="36"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="72"/>
+      <c r="C28" s="40" t="s">
+        <v>64</v>
+      </c>
       <c r="D28" s="43"/>
     </row>
     <row r="29" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
-      <c r="B29" s="38" t="s">
+      <c r="A29" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="50"/>
+      <c r="D30" s="43"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="51"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="51"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="37"/>
+      <c r="B35" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-    </row>
-    <row r="30" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33"/>
-      <c r="B33"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
